--- a/WorkBot/main/backend/orders/OrderFiles/US Foods/US Foods _ TRIPHAMMER 20250221.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/US Foods/US Foods _ TRIPHAMMER 20250221.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,6 +772,600 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>62063</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Can - Olive Black (Sliced)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$47.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>$47.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>45340</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Green Bean - FRZ Whole</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$32.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>$32.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1059229</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Broccoli - FRZ</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$32.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>$32.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>25806</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cheddar - (Sliced)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>$33.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>$506.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>29053</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Feta - Pail</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>$95.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>$95.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>46999</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Lemon Juice</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>$16.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>$16.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>25330</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Parmesan (Grated)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>$59.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>$119.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>60171</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Pickle - Dill Chip</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>$34.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>$34.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3275539</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sauerkraut</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>$19.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>$38.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2825368</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sausage - Chicken Patty</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>$51.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>$102.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>54112</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Smoked Turkey (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>$76.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>$305.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1132582</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sour Cream</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>$28.94</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>$28.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>8255796</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Tuna White Chunk (Pouch)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>$72.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>$436.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>11072</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Vegan Chicken Tenders</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>$87.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>$175.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>6364494</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Yogurt - Greek (Bulk)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>$27.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>$54.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1030192</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>BBQ - Sauce</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>$72.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>$72.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>5514021</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Bacon (Pre-Cooked)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>$33.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>$502.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>88202</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Arugula - Fresh</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>$18.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>$73.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>7228448</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Carrots - Jumbo Fresh</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>$25.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>$25.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>6579288</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Cilantro - Fresh</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>$24.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>$24.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>5365192</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Garlic - Fresh (Peeled)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>$68.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>$68.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>88153</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Onion - Yellow Fresh</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>$19.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>$39.44</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
